--- a/sales_summary.xlsx
+++ b/sales_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Product</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t>TotalSales</t>
+  </si>
+  <si>
+    <t>Stock Left</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -381,13 +390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,6 +405,23 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -405,7 +431,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +445,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sales_summary.xlsx
+++ b/sales_summary.xlsx
@@ -29,10 +29,10 @@
     <t>Stock Left</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>Fruits</t>
+    <t>bananaa</t>
+  </si>
+  <si>
+    <t>Fruits-1</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sales_summary.xlsx
+++ b/sales_summary.xlsx
@@ -29,10 +29,10 @@
     <t>Stock Left</t>
   </si>
   <si>
-    <t>bananaa</t>
-  </si>
-  <si>
-    <t>Fruits-1</t>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
